--- a/pred_ohlcv/54_21/2019-10-27 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 HC ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-3512.985600000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-13500.689</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-13500.789</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-13162.0691</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-12637.1999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-10769.1869</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6992.880700000004</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6459.370200000004</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4805.695186630004</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-101.4389866300035</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>351.8167133699965</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>656.8167133699965</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>674.4737133699965</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>957.5718133699966</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1811.643186630004</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1721.162686630003</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1322.285986630003</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2457.939113369996</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2894.499113369996</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2857.613713369996</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3164.737313369996</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3142.388513369996</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3142.388513369996</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3142.506513369996</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3126.735313369996</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2771.368013369996</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2771.368013369996</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3157.918413369996</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3157.341113369996</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3723.914613369996</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3746.314613369996</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3338.775013369996</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3662.572213369996</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2253.357213369996</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1623.818113369996</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1623.818213369996</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3658.059713369996</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3672.698713369996</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3556.369537269996</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3585.469537269996</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3457.450637269996</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4484.156037269996</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>4943.857437269996</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11269.84580774</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>11401.93270774</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>11345.3029803</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11144.45018029999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>11125.1357803</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>10984.0400803</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>10568.5370803</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>10828.8783803</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>10829.8783803</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>10808.7070803</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>11123.54758029999</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>11124.54758029999</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 HC ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-3512.985600000001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-13704.5639</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-13500.689</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-13500.789</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-13162.0691</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-13252.8091</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6992.880700000004</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6459.370200000004</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4805.695186630004</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-101.4389866300035</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>351.8167133699965</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>656.8167133699965</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>674.4737133699965</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>691.7247133699965</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>957.5718133699966</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1811.643186630004</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1721.162686630003</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1322.285986630003</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2457.939113369996</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2894.499113369996</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2857.613713369996</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3164.737313369996</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3142.388513369996</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3142.388513369996</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3142.506513369996</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3126.735313369996</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2771.368013369996</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2771.368013369996</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3157.918413369996</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3191.735013369996</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3157.341113369996</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3723.914613369996</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3746.314613369996</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3338.775013369996</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3662.572213369996</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2253.357213369996</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2253.257213369996</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1623.818113369996</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1623.818213369996</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3658.059713369996</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3672.698713369996</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3556.369537269996</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3585.469537269996</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3457.450637269996</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4484.156037269996</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>4943.857437269996</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>9835.975707739995</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>11462.20100774</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11269.84580774</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>11401.93270774</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>11345.3029803</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11144.45018029999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>11125.1357803</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>10984.0400803</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>10568.5370803</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>10828.8783803</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>10829.8783803</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>10808.7070803</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>11340.23678029999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>11123.54758029999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>11124.54758029999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
